--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -140,10 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,19 +448,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -527,20 +527,20 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -548,20 +548,20 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -569,20 +569,20 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -590,19 +590,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -610,174 +610,209 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <f>(B13*40)/B10</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B3</f>
-        <v>9</v>
+        <f>B2</f>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <f>(B14*40)/B10</f>
-        <v>36</v>
+        <f>(B14*40)/B11</f>
+        <v>0</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B4</f>
+        <f>B3</f>
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <f>(B15*40)/B10</f>
+        <f>(B15*40)/B11</f>
         <v>36</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B5</f>
+        <f>B4</f>
         <v>9</v>
       </c>
       <c r="C16" s="6">
-        <f>(B16*40)/B10</f>
+        <f>(B16*40)/B11</f>
         <v>36</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B6</f>
-        <v>0</v>
+        <f>B5</f>
+        <v>9</v>
       </c>
       <c r="C17" s="6">
-        <f>(B17*40)/B10</f>
-        <v>0</v>
+        <f>(B17*40)/B11</f>
+        <v>36</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B7</f>
-        <v>0</v>
+        <f>B6</f>
+        <v>9</v>
       </c>
       <c r="C18" s="6">
-        <f>(B18*40)/B10</f>
-        <v>0</v>
+        <f>(B18*40)/B11</f>
+        <v>36</v>
       </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B8</f>
+        <f>B7</f>
         <v>0</v>
       </c>
       <c r="C19" s="6">
-        <f>(B19*40)/B10</f>
+        <f>(B19*40)/B11</f>
         <v>0</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="10">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <f>(B20*40)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
         <f>B9</f>
         <v>0</v>
       </c>
-      <c r="C20" s="6">
-        <f>(B20*40)/B10</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="C21" s="6">
+        <f>(B21*40)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <f>(B22*40)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Final Scores</t>
+  </si>
+  <si>
+    <t>session04</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +451,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -469,7 +474,9 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -490,7 +497,9 @@
       <c r="B3" s="1">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -511,7 +520,9 @@
       <c r="B4" s="3">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -532,7 +543,9 @@
       <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -553,7 +566,9 @@
       <c r="B6" s="3">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -574,7 +589,9 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -595,7 +612,9 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -616,7 +635,9 @@
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
@@ -637,7 +658,9 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
@@ -656,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -689,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2</f>
+        <f>B2+C2</f>
         <v>0</v>
       </c>
       <c r="C14" s="6">
@@ -703,12 +726,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3</f>
-        <v>9</v>
+        <f>B3+C3</f>
+        <v>14</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -717,12 +740,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4</f>
-        <v>9</v>
+        <f>B4+C4</f>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -731,12 +754,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5</f>
-        <v>9</v>
+        <f>B5+C5</f>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -745,12 +768,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6</f>
-        <v>9</v>
+        <f>B6+C6</f>
+        <v>19</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B11</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -759,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7</f>
+        <f>B7+C7</f>
         <v>0</v>
       </c>
       <c r="C19" s="6">
@@ -773,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10">
-        <f>B8</f>
+        <f>B8+C8</f>
         <v>0</v>
       </c>
       <c r="C20" s="6">
@@ -787,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="10">
-        <f>B9</f>
+        <f>B9+C9</f>
         <v>0</v>
       </c>
       <c r="C21" s="6">
@@ -801,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="10">
-        <f>B10</f>
+        <f>B10+C10</f>
         <v>0</v>
       </c>
       <c r="C22" s="6">

--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q02</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -175,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,10 +188,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,7 +303,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,11 +352,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -390,7 +391,9 @@
       <c r="J2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -427,7 +430,10 @@
       <c r="J3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="n">
+        <f aca="false">(34/40)*10</f>
+        <v>8.5</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -464,7 +470,9 @@
       <c r="J4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -502,7 +510,10 @@
         <f aca="false">(16/17)*10</f>
         <v>9.41176470588235</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="n">
+        <f aca="false">(36/40)*10</f>
+        <v>9</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -540,7 +551,10 @@
         <f aca="false">(10/17)*10</f>
         <v>5.88235294117647</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="n">
+        <f aca="false">(27/40)*10</f>
+        <v>6.75</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -577,7 +591,9 @@
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -614,7 +630,9 @@
       <c r="J8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -651,14 +669,16 @@
       <c r="J9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -688,56 +708,58 @@
       <c r="J10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>90</v>
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="n">
+      <c r="B14" s="9" t="n">
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <f aca="false">(B14*40)/B11</f>
         <v>0</v>
       </c>
@@ -747,45 +769,45 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="7" t="n">
         <f aca="false">C14+D14+E14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3</f>
+      <c r="B15" s="9" t="n">
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>37.5</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <f aca="false">(B15*40)/B11</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">C15+D15+E15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
         <v>29</v>
       </c>
-      <c r="C15" s="11" t="n">
-        <f aca="false">(B15*40)/B11</f>
-        <v>12.8888888888889</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <f aca="false">C15+D15+E15</f>
-        <v>12.8888888888889</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4</f>
-        <v>19</v>
-      </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <f aca="false">(B16*40)/B11</f>
-        <v>8.44444444444444</v>
+        <v>11.6</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -793,22 +815,22 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="7" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>8.44444444444444</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5</f>
-        <v>58.4117647058824</v>
-      </c>
-      <c r="C17" s="11" t="n">
+      <c r="B17" s="9" t="n">
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
+        <v>67.4117647058823</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <f aca="false">(B17*40)/B11</f>
-        <v>25.9607843137255</v>
+        <v>26.9647058823529</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>5</v>
@@ -816,22 +838,22 @@
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="7" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>30.9607843137255</v>
+        <v>31.9647058823529</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6</f>
-        <v>60.8823529411765</v>
-      </c>
-      <c r="C18" s="11" t="n">
+      <c r="B18" s="9" t="n">
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+        <v>67.6323529411765</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <f aca="false">(B18*40)/B11</f>
-        <v>27.0588235294118</v>
+        <v>27.0529411764706</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
@@ -839,22 +861,22 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="7" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>32.0588235294118</v>
+        <v>32.0529411764706</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7</f>
+      <c r="B19" s="9" t="n">
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
         <v>5</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <f aca="false">(B19*40)/B11</f>
-        <v>2.22222222222222</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -862,20 +884,20 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>2.22222222222222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
+      <c r="B20" s="9" t="n">
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <f aca="false">(B20*40)/B11</f>
         <v>0</v>
       </c>
@@ -885,20 +907,20 @@
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="7" t="n">
         <f aca="false">C20+D20+E20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="11" t="n">
+      <c r="B21" s="9" t="n">
+        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9+K9</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
         <f aca="false">(B21*40)/B11</f>
         <v>0</v>
       </c>
@@ -908,20 +930,20 @@
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <f aca="false">C21+D21+E21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="11" t="n">
+      <c r="B22" s="9" t="n">
+        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10+K10</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="n">
         <f aca="false">(B22*40)/B11</f>
         <v>0</v>
       </c>
@@ -931,7 +953,7 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="7" t="n">
         <f aca="false">C22+D22+E22</f>
         <v>0</v>
       </c>

--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t xml:space="preserve">Q02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h16</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -315,7 +327,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
@@ -355,10 +367,18 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -394,10 +414,18 @@
       <c r="K2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -434,10 +462,18 @@
         <f aca="false">(34/40)*10</f>
         <v>8.5</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="L3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -473,10 +509,18 @@
       <c r="K4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -514,10 +558,18 @@
         <f aca="false">(36/40)*10</f>
         <v>9</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -555,10 +607,18 @@
         <f aca="false">(27/40)*10</f>
         <v>6.75</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -594,10 +654,18 @@
       <c r="K7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -633,10 +701,18 @@
       <c r="K8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -672,10 +748,18 @@
       <c r="K9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -711,22 +795,30 @@
       <c r="K10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -736,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+M2+N2+O2</f>
         <v>0</v>
       </c>
       <c r="C14" s="10" t="n">
@@ -770,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="n">
-        <f aca="false">C14+D14+E14</f>
+        <f aca="false">C14+D14+E14+L2</f>
         <v>0</v>
       </c>
     </row>
@@ -779,12 +871,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+M3+N3+O3</f>
         <v>37.5</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*40)/B11</f>
-        <v>15</v>
+        <v>11.5384615384615</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -793,8 +885,8 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="n">
-        <f aca="false">C15+D15+E15</f>
-        <v>15</v>
+        <f aca="false">C15+D15+E15+L3</f>
+        <v>16.5384615384615</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,12 +894,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+M4+N4+O4</f>
         <v>29</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*40)/B11</f>
-        <v>11.6</v>
+        <v>8.92307692307692</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -816,8 +908,8 @@
         <v>0</v>
       </c>
       <c r="F16" s="7" t="n">
-        <f aca="false">C16+D16+E16</f>
-        <v>11.6</v>
+        <f aca="false">C16+D16+E16+L4</f>
+        <v>8.92307692307692</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,12 +917,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
-        <v>67.4117647058823</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+M5+N5+O5</f>
+        <v>88.9117647058824</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*40)/B11</f>
-        <v>26.9647058823529</v>
+        <v>27.3574660633484</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>5</v>
@@ -839,8 +931,8 @@
         <v>0</v>
       </c>
       <c r="F17" s="7" t="n">
-        <f aca="false">C17+D17+E17</f>
-        <v>31.9647058823529</v>
+        <f aca="false">C17+D17+E17+L5</f>
+        <v>37.3574660633484</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,12 +940,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="9" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
-        <v>67.6323529411765</v>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+M6+N6+O6</f>
+        <v>78.1323529411765</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*40)/B11</f>
-        <v>27.0529411764706</v>
+        <v>24.0407239819004</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
@@ -862,8 +954,8 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="n">
-        <f aca="false">C18+D18+E18</f>
-        <v>32.0529411764706</v>
+        <f aca="false">C18+D18+E18+L6</f>
+        <v>34.0407239819004</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,12 +963,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+M7+N7+O7</f>
         <v>5</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*40)/B11</f>
-        <v>2</v>
+        <v>1.53846153846154</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -885,8 +977,8 @@
         <v>0</v>
       </c>
       <c r="F19" s="7" t="n">
-        <f aca="false">C19+D19+E19</f>
-        <v>2</v>
+        <f aca="false">C19+D19+E19+L7</f>
+        <v>1.53846153846154</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="9" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+M8+N8+O8</f>
         <v>0</v>
       </c>
       <c r="C20" s="10" t="n">
@@ -908,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7" t="n">
-        <f aca="false">C20+D20+E20</f>
+        <f aca="false">C20+D20+E20+L8</f>
         <v>0</v>
       </c>
     </row>
@@ -917,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="n">
-        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9+K9</f>
+        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9+K9+M9+N9+O9</f>
         <v>0</v>
       </c>
       <c r="C21" s="10" t="n">
@@ -931,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="7" t="n">
-        <f aca="false">C21+D21+E21</f>
+        <f aca="false">C21+D21+E21+L9</f>
         <v>0</v>
       </c>
     </row>
@@ -940,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="9" t="n">
-        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10+K10</f>
+        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10+K10+M10+N10+O10</f>
         <v>0</v>
       </c>
       <c r="C22" s="10" t="n">
@@ -954,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="n">
-        <f aca="false">C22+D22+E22</f>
+        <f aca="false">C22+D22+E22+L10</f>
         <v>0</v>
       </c>
     </row>

--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -315,7 +315,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/105/105.xlsx
+++ b/105/105.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">h16</t>
   </si>
   <si>
+    <t xml:space="preserve">h20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -83,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">Final Scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,8 +129,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,7 +147,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,8 +170,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF650953"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,11 +258,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,7 +286,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -264,12 +303,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF650953"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -293,7 +332,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -312,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,6 +418,9 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -426,6 +468,9 @@
       <c r="O2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -474,6 +519,9 @@
       <c r="O3" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -489,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -519,6 +567,9 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -570,6 +621,9 @@
       <c r="O5" s="1" t="n">
         <v>9.5</v>
       </c>
+      <c r="P5" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -619,6 +673,9 @@
       <c r="O6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -666,6 +723,9 @@
       <c r="O7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -713,6 +773,9 @@
       <c r="O8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -760,6 +823,9 @@
       <c r="O9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -807,10 +873,13 @@
       <c r="O10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>130</v>
@@ -818,7 +887,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -828,30 +897,33 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+M2+N2+O2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="B14" s="10" t="n">
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+M2+N2+O2+P2</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <f aca="false">(B14*40)/B11</f>
         <v>0</v>
       </c>
@@ -864,17 +936,21 @@
       <c r="F14" s="7" t="n">
         <f aca="false">C14+D14+E14+L2</f>
         <v>0</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">((F14-F23)*40)/(F24-F23)+60</f>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+M3+N3+O3</f>
+      <c r="B15" s="10" t="n">
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+M3+N3+O3+P3</f>
         <v>37.5</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">(B15*40)/B11</f>
         <v>11.5384615384615</v>
       </c>
@@ -882,24 +958,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">C15+D15+E15+L3</f>
-        <v>16.5384615384615</v>
+        <v>66.5384615384616</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <f aca="false">((F15-F23)*40)/(F24-F23)+60</f>
+        <v>86.5002703189764</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+M4+N4+O4</f>
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="10" t="n">
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+M4+N4+O4+P4</f>
+        <v>34</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <f aca="false">(B16*40)/B11</f>
-        <v>8.92307692307692</v>
+        <v>10.4615384615385</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -909,41 +989,49 @@
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">C16+D16+E16+L4</f>
-        <v>8.92307692307692</v>
+        <v>10.4615384615385</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">((F16-F23)*40)/(F24-F23)+60</f>
+        <v>64.1665164894576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+M5+N5+O5</f>
-        <v>88.9117647058824</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="10" t="n">
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+M5+N5+O5+P5</f>
+        <v>98.9117647058824</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <f aca="false">(B17*40)/B11</f>
-        <v>27.3574660633484</v>
+        <v>30.4343891402715</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">C17+D17+E17+L5</f>
-        <v>37.3574660633484</v>
+        <v>100.434389140272</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <f aca="false">((F17-F23)*40)/(F24-F23)+60</f>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+M6+N6+O6</f>
+      <c r="B18" s="10" t="n">
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+M6+N6+O6+P6</f>
         <v>78.1323529411765</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <f aca="false">(B18*40)/B11</f>
         <v>24.0407239819004</v>
       </c>
@@ -951,22 +1039,26 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="n">
         <f aca="false">C18+D18+E18+L6</f>
-        <v>34.0407239819004</v>
+        <v>79.0407239819004</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">((F18-F23)*40)/(F24-F23)+60</f>
+        <v>91.4795458641197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+M7+N7+O7</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="10" t="n">
+      <c r="B19" s="10" t="n">
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+M7+N7+O7+P7</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="n">
         <f aca="false">(B19*40)/B11</f>
         <v>1.53846153846154</v>
       </c>
@@ -980,16 +1072,20 @@
         <f aca="false">C19+D19+E19+L7</f>
         <v>1.53846153846154</v>
       </c>
+      <c r="G19" s="12" t="n">
+        <f aca="false">((F19-F23)*40)/(F24-F23)+60</f>
+        <v>60.6127230131555</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="9" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+M8+N8+O8</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="n">
+      <c r="B20" s="10" t="n">
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+M8+N8+O8+P8</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <f aca="false">(B20*40)/B11</f>
         <v>0</v>
       </c>
@@ -1002,17 +1098,21 @@
       <c r="F20" s="7" t="n">
         <f aca="false">C20+D20+E20+L8</f>
         <v>0</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <f aca="false">((F20-F23)*40)/(F24-F23)+60</f>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B21" s="9" t="n">
-        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9+K9+M9+N9+O9</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="n">
+      <c r="B21" s="10" t="n">
+        <f aca="false">B9+C9+D9+E9+F9+G9+H9+I9+J9+K9+M9+N9+O9+P9</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n">
         <f aca="false">(B21*40)/B11</f>
         <v>0</v>
       </c>
@@ -1025,17 +1125,21 @@
       <c r="F21" s="7" t="n">
         <f aca="false">C21+D21+E21+L9</f>
         <v>0</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <f aca="false">((F21-F23)*40)/(F24-F23)+60</f>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="9" t="n">
-        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10+K10+M10+N10+O10</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="10" t="n">
+      <c r="B22" s="10" t="n">
+        <f aca="false">B10+C10+D10+E10+F10+G10+H10+I10+J10+K10+M10+N10+O10+P10</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="n">
         <f aca="false">(B22*40)/B11</f>
         <v>0</v>
       </c>
@@ -1048,6 +1152,28 @@
       <c r="F22" s="7" t="n">
         <f aca="false">C22+D22+E22+L10</f>
         <v>0</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <f aca="false">((F22-F23)*40)/(F24-F23)+60</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <f aca="false">MIN(F14:F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <f aca="false">MAX(F14:F22)</f>
+        <v>100.434389140272</v>
       </c>
     </row>
   </sheetData>
